--- a/sequences/16_retrieval_1.xlsx
+++ b/sequences/16_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1150,19 +1150,19 @@
     <t>correct/old/uncued</t>
   </si>
   <si>
+    <t>correct/old/cued</t>
+  </si>
+  <si>
+    <t>same/old/uncued</t>
+  </si>
+  <si>
+    <t>other/old/cued</t>
+  </si>
+  <si>
+    <t>other/old/uncued</t>
+  </si>
+  <si>
     <t>same/old/cued</t>
-  </si>
-  <si>
-    <t>other/old/cued</t>
-  </si>
-  <si>
-    <t>other/old/uncued</t>
-  </si>
-  <si>
-    <t>same/old/uncued</t>
-  </si>
-  <si>
-    <t>correct/old/cued</t>
   </si>
   <si>
     <t>face/face233.jpg</t>
@@ -1872,13 +1872,13 @@
         <v>272</v>
       </c>
       <c r="L2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M2" t="s">
         <v>251</v>
       </c>
       <c r="N2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1907,10 +1907,10 @@
         <v>377</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K3" t="s">
         <v>413</v>
@@ -1919,10 +1919,10 @@
         <v>376</v>
       </c>
       <c r="M3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1942,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
         <v>383</v>
@@ -1963,10 +1963,10 @@
         <v>380</v>
       </c>
       <c r="M4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I5" t="s">
         <v>384</v>
@@ -2001,16 +2001,16 @@
         <v>376</v>
       </c>
       <c r="K5" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="L5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M5" t="s">
         <v>208</v>
       </c>
       <c r="N5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2032,6 +2032,30 @@
       <c r="F6" t="s">
         <v>209</v>
       </c>
+      <c r="G6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2053,16 +2077,16 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I7" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K7" t="s">
         <v>414</v>
@@ -2074,7 +2098,7 @@
         <v>210</v>
       </c>
       <c r="N7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2109,16 +2133,16 @@
         <v>376</v>
       </c>
       <c r="K8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2147,10 +2171,10 @@
         <v>377</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K9" t="s">
         <v>415</v>
@@ -2159,10 +2183,10 @@
         <v>376</v>
       </c>
       <c r="M9" t="s">
-        <v>230</v>
+        <v>331</v>
       </c>
       <c r="N9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2191,16 +2215,16 @@
         <v>376</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="J10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K10" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M10" t="s">
         <v>213</v>
@@ -2241,16 +2265,16 @@
         <v>377</v>
       </c>
       <c r="K11" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="L11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2282,13 +2306,13 @@
         <v>274</v>
       </c>
       <c r="J12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K12" t="s">
         <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M12" t="s">
         <v>215</v>
@@ -2316,6 +2340,30 @@
       <c r="F13" t="s">
         <v>209</v>
       </c>
+      <c r="G13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2337,16 +2385,16 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I14" t="s">
         <v>216</v>
       </c>
       <c r="J14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K14" t="s">
         <v>416</v>
@@ -2355,10 +2403,10 @@
         <v>376</v>
       </c>
       <c r="M14" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2381,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>287</v>
       </c>
       <c r="H15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I15" t="s">
         <v>386</v>
@@ -2399,10 +2447,10 @@
         <v>377</v>
       </c>
       <c r="M15" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="N15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2431,10 +2479,10 @@
         <v>377</v>
       </c>
       <c r="I16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="J16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K16" t="s">
         <v>417</v>
@@ -2443,10 +2491,10 @@
         <v>376</v>
       </c>
       <c r="M16" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="N16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2481,16 +2529,16 @@
         <v>377</v>
       </c>
       <c r="K17" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="L17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
         <v>214</v>
       </c>
       <c r="N17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2512,6 +2560,30 @@
       <c r="F18" t="s">
         <v>209</v>
       </c>
+      <c r="G18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2532,6 +2604,30 @@
       <c r="F19" t="s">
         <v>209</v>
       </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2552,6 +2648,30 @@
       <c r="F20" t="s">
         <v>209</v>
       </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2572,6 +2692,30 @@
       <c r="F21" t="s">
         <v>209</v>
       </c>
+      <c r="G21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -2605,16 +2749,16 @@
         <v>377</v>
       </c>
       <c r="K22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M22" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="N22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2636,6 +2780,30 @@
       <c r="F23" t="s">
         <v>209</v>
       </c>
+      <c r="G23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="s">
+        <v>209</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2656,6 +2824,30 @@
       <c r="F24" t="s">
         <v>209</v>
       </c>
+      <c r="G24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
@@ -2683,16 +2875,16 @@
         <v>376</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="L25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M25" t="s">
         <v>221</v>
@@ -2721,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="H26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I26" t="s">
         <v>387</v>
@@ -2739,10 +2931,10 @@
         <v>377</v>
       </c>
       <c r="M26" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="N26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2764,6 +2956,30 @@
       <c r="F27" t="s">
         <v>209</v>
       </c>
+      <c r="G27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2794,13 +3010,13 @@
         <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K28" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M28" t="s">
         <v>223</v>
@@ -2826,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="H29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J29" t="s">
         <v>380</v>
@@ -2844,7 +3060,7 @@
         <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M29" t="s">
         <v>454</v>
@@ -2873,16 +3089,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K30" t="s">
         <v>418</v>
@@ -2914,25 +3130,25 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I31" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M31" t="s">
         <v>455</v>
@@ -2967,16 +3183,16 @@
         <v>376</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K32" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M32" t="s">
         <v>227</v>
@@ -3008,7 +3224,7 @@
         <v>303</v>
       </c>
       <c r="H33" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I33" t="s">
         <v>228</v>
@@ -3023,10 +3239,10 @@
         <v>376</v>
       </c>
       <c r="M33" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3048,6 +3264,30 @@
       <c r="F34" t="s">
         <v>209</v>
       </c>
+      <c r="G34" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3068,6 +3308,30 @@
       <c r="F35" t="s">
         <v>209</v>
       </c>
+      <c r="G35" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J35" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" t="s">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" t="s">
+        <v>209</v>
+      </c>
+      <c r="N35" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3092,7 +3356,7 @@
         <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I36" t="s">
         <v>229</v>
@@ -3101,10 +3365,10 @@
         <v>377</v>
       </c>
       <c r="K36" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M36" t="s">
         <v>456</v>
@@ -3132,6 +3396,30 @@
       <c r="F37" t="s">
         <v>209</v>
       </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s">
+        <v>209</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3150,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H38" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I38" t="s">
         <v>388</v>
@@ -3165,16 +3453,16 @@
         <v>376</v>
       </c>
       <c r="K38" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M38" t="s">
         <v>230</v>
       </c>
       <c r="N38" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3206,13 +3494,13 @@
         <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K39" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M39" t="s">
         <v>231</v>
@@ -3240,6 +3528,30 @@
       <c r="F40" t="s">
         <v>209</v>
       </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" t="s">
+        <v>209</v>
+      </c>
+      <c r="J40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" t="s">
+        <v>209</v>
+      </c>
+      <c r="L40" t="s">
+        <v>209</v>
+      </c>
+      <c r="M40" t="s">
+        <v>209</v>
+      </c>
+      <c r="N40" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
@@ -3267,10 +3579,10 @@
         <v>377</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="J41" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
         <v>420</v>
@@ -3279,10 +3591,10 @@
         <v>376</v>
       </c>
       <c r="M41" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3305,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="H42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I42" t="s">
         <v>389</v>
@@ -3323,10 +3635,10 @@
         <v>377</v>
       </c>
       <c r="M42" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="N42" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3349,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="H43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I43" t="s">
         <v>234</v>
@@ -3367,10 +3679,10 @@
         <v>376</v>
       </c>
       <c r="M43" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="N43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3392,6 +3704,30 @@
       <c r="F44" t="s">
         <v>209</v>
       </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" t="s">
+        <v>209</v>
+      </c>
+      <c r="J44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K44" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s">
+        <v>209</v>
+      </c>
+      <c r="M44" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3416,7 +3752,7 @@
         <v>232</v>
       </c>
       <c r="H45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I45" t="s">
         <v>235</v>
@@ -3425,10 +3761,10 @@
         <v>377</v>
       </c>
       <c r="K45" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s">
         <v>457</v>
@@ -3456,6 +3792,30 @@
       <c r="F46" t="s">
         <v>209</v>
       </c>
+      <c r="G46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" t="s">
+        <v>209</v>
+      </c>
+      <c r="J46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K46" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" t="s">
+        <v>209</v>
+      </c>
+      <c r="M46" t="s">
+        <v>209</v>
+      </c>
+      <c r="N46" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3474,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>348</v>
@@ -3486,19 +3846,19 @@
         <v>236</v>
       </c>
       <c r="J47" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3536,13 +3896,13 @@
         <v>244</v>
       </c>
       <c r="L48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s">
         <v>278</v>
       </c>
       <c r="N48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3564,6 +3924,30 @@
       <c r="F49" t="s">
         <v>209</v>
       </c>
+      <c r="G49" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" t="s">
+        <v>209</v>
+      </c>
+      <c r="J49" t="s">
+        <v>209</v>
+      </c>
+      <c r="K49" t="s">
+        <v>209</v>
+      </c>
+      <c r="L49" t="s">
+        <v>209</v>
+      </c>
+      <c r="M49" t="s">
+        <v>209</v>
+      </c>
+      <c r="N49" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3584,6 +3968,30 @@
       <c r="F50" t="s">
         <v>209</v>
       </c>
+      <c r="G50" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" t="s">
+        <v>209</v>
+      </c>
+      <c r="I50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J50" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" t="s">
+        <v>209</v>
+      </c>
+      <c r="N50" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
@@ -3611,16 +4019,16 @@
         <v>376</v>
       </c>
       <c r="I51" t="s">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="J51" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M51" t="s">
         <v>238</v>
@@ -3655,16 +4063,16 @@
         <v>376</v>
       </c>
       <c r="I52" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K52" t="s">
         <v>275</v>
       </c>
       <c r="L52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s">
         <v>239</v>
@@ -3702,7 +4110,7 @@
         <v>305</v>
       </c>
       <c r="J53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K53" t="s">
         <v>422</v>
@@ -3714,7 +4122,7 @@
         <v>239</v>
       </c>
       <c r="N53" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3737,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="H54" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I54" t="s">
         <v>390</v>
@@ -3749,16 +4157,16 @@
         <v>376</v>
       </c>
       <c r="K54" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s">
         <v>241</v>
       </c>
       <c r="N54" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3780,6 +4188,30 @@
       <c r="F55" t="s">
         <v>209</v>
       </c>
+      <c r="G55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55" t="s">
+        <v>209</v>
+      </c>
+      <c r="L55" t="s">
+        <v>209</v>
+      </c>
+      <c r="M55" t="s">
+        <v>209</v>
+      </c>
+      <c r="N55" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3800,6 +4232,30 @@
       <c r="F56" t="s">
         <v>209</v>
       </c>
+      <c r="G56" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" t="s">
+        <v>209</v>
+      </c>
+      <c r="L56" t="s">
+        <v>209</v>
+      </c>
+      <c r="M56" t="s">
+        <v>209</v>
+      </c>
+      <c r="N56" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3818,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="s">
         <v>242</v>
       </c>
       <c r="H57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I57" t="s">
         <v>391</v>
@@ -3833,10 +4289,10 @@
         <v>376</v>
       </c>
       <c r="K57" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="L57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s">
         <v>240</v>
@@ -3868,13 +4324,13 @@
         <v>243</v>
       </c>
       <c r="H58" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I58" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="J58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K58" t="s">
         <v>423</v>
@@ -3883,10 +4339,10 @@
         <v>376</v>
       </c>
       <c r="M58" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="N58" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3909,16 +4365,16 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="H59" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I59" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="J59" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K59" t="s">
         <v>424</v>
@@ -3952,6 +4408,30 @@
       <c r="F60" t="s">
         <v>209</v>
       </c>
+      <c r="G60" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" t="s">
+        <v>209</v>
+      </c>
+      <c r="I60" t="s">
+        <v>209</v>
+      </c>
+      <c r="J60" t="s">
+        <v>209</v>
+      </c>
+      <c r="K60" t="s">
+        <v>209</v>
+      </c>
+      <c r="L60" t="s">
+        <v>209</v>
+      </c>
+      <c r="M60" t="s">
+        <v>209</v>
+      </c>
+      <c r="N60" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -3982,7 +4462,7 @@
         <v>322</v>
       </c>
       <c r="J61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K61" t="s">
         <v>425</v>
@@ -3994,7 +4474,7 @@
         <v>274</v>
       </c>
       <c r="N61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4020,7 +4500,7 @@
         <v>271</v>
       </c>
       <c r="H62" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I62" t="s">
         <v>392</v>
@@ -4032,7 +4512,7 @@
         <v>234</v>
       </c>
       <c r="L62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M62" t="s">
         <v>246</v>
@@ -4058,19 +4538,19 @@
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="H63" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I63" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="J63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K63" t="s">
         <v>426</v>
@@ -4082,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="N63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4104,6 +4584,30 @@
       <c r="F64" t="s">
         <v>209</v>
       </c>
+      <c r="G64" t="s">
+        <v>209</v>
+      </c>
+      <c r="H64" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" t="s">
+        <v>209</v>
+      </c>
+      <c r="J64" t="s">
+        <v>209</v>
+      </c>
+      <c r="K64" t="s">
+        <v>209</v>
+      </c>
+      <c r="L64" t="s">
+        <v>209</v>
+      </c>
+      <c r="M64" t="s">
+        <v>209</v>
+      </c>
+      <c r="N64" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
@@ -4131,16 +4635,16 @@
         <v>377</v>
       </c>
       <c r="I65" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J65" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K65" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="L65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M65" t="s">
         <v>458</v>
@@ -4166,19 +4670,19 @@
         <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I66" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="J66" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K66" t="s">
         <v>427</v>
@@ -4187,10 +4691,10 @@
         <v>376</v>
       </c>
       <c r="M66" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="N66" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4212,6 +4716,30 @@
       <c r="F67" t="s">
         <v>209</v>
       </c>
+      <c r="G67" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" t="s">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" t="s">
+        <v>209</v>
+      </c>
+      <c r="L67" t="s">
+        <v>209</v>
+      </c>
+      <c r="M67" t="s">
+        <v>209</v>
+      </c>
+      <c r="N67" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4230,19 +4758,19 @@
         <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
       <c r="H68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I68" t="s">
         <v>250</v>
       </c>
       <c r="J68" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K68" t="s">
         <v>428</v>
@@ -4251,10 +4779,10 @@
         <v>376</v>
       </c>
       <c r="M68" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N68" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4289,16 +4817,16 @@
         <v>376</v>
       </c>
       <c r="K69" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="L69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M69" t="s">
         <v>332</v>
       </c>
       <c r="N69" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4321,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H70" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I70" t="s">
         <v>252</v>
@@ -4339,10 +4867,10 @@
         <v>376</v>
       </c>
       <c r="M70" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="N70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4364,6 +4892,30 @@
       <c r="F71" t="s">
         <v>209</v>
       </c>
+      <c r="G71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H71" t="s">
+        <v>209</v>
+      </c>
+      <c r="I71" t="s">
+        <v>209</v>
+      </c>
+      <c r="J71" t="s">
+        <v>209</v>
+      </c>
+      <c r="K71" t="s">
+        <v>209</v>
+      </c>
+      <c r="L71" t="s">
+        <v>209</v>
+      </c>
+      <c r="M71" t="s">
+        <v>209</v>
+      </c>
+      <c r="N71" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
@@ -4391,10 +4943,10 @@
         <v>376</v>
       </c>
       <c r="I72" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J72" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K72" t="s">
         <v>253</v>
@@ -4403,10 +4955,10 @@
         <v>377</v>
       </c>
       <c r="M72" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="N72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4429,16 +4981,16 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="H73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I73" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J73" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K73" t="s">
         <v>430</v>
@@ -4476,19 +5028,19 @@
         <v>255</v>
       </c>
       <c r="H74" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I74" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="J74" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K74" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M74" t="s">
         <v>459</v>
@@ -4523,10 +5075,10 @@
         <v>376</v>
       </c>
       <c r="I75" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="J75" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K75" t="s">
         <v>256</v>
@@ -4538,7 +5090,7 @@
         <v>294</v>
       </c>
       <c r="N75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4560,6 +5112,30 @@
       <c r="F76" t="s">
         <v>209</v>
       </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" t="s">
+        <v>209</v>
+      </c>
+      <c r="J76" t="s">
+        <v>209</v>
+      </c>
+      <c r="K76" t="s">
+        <v>209</v>
+      </c>
+      <c r="L76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M76" t="s">
+        <v>209</v>
+      </c>
+      <c r="N76" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4587,22 +5163,22 @@
         <v>376</v>
       </c>
       <c r="I77" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="J77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s">
         <v>257</v>
       </c>
       <c r="L77" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M77" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="N77" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4622,13 +5198,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="H78" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I78" t="s">
         <v>394</v>
@@ -4640,13 +5216,13 @@
         <v>258</v>
       </c>
       <c r="L78" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M78" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4669,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="H79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I79" t="s">
         <v>395</v>
@@ -4684,7 +5260,7 @@
         <v>287</v>
       </c>
       <c r="L79" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M79" t="s">
         <v>259</v>
@@ -4710,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="s">
         <v>355</v>
@@ -4722,19 +5298,19 @@
         <v>260</v>
       </c>
       <c r="J80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K80" t="s">
         <v>294</v>
       </c>
       <c r="L80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M80" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4756,6 +5332,30 @@
       <c r="F81" t="s">
         <v>209</v>
       </c>
+      <c r="G81" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" t="s">
+        <v>209</v>
+      </c>
+      <c r="J81" t="s">
+        <v>209</v>
+      </c>
+      <c r="K81" t="s">
+        <v>209</v>
+      </c>
+      <c r="L81" t="s">
+        <v>209</v>
+      </c>
+      <c r="M81" t="s">
+        <v>209</v>
+      </c>
+      <c r="N81" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4774,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
         <v>356</v>
@@ -4786,19 +5386,19 @@
         <v>261</v>
       </c>
       <c r="J82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K82" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L82" t="s">
         <v>380</v>
       </c>
       <c r="M82" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="N82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4820,6 +5420,30 @@
       <c r="F83" t="s">
         <v>209</v>
       </c>
+      <c r="G83" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" t="s">
+        <v>209</v>
+      </c>
+      <c r="I83" t="s">
+        <v>209</v>
+      </c>
+      <c r="J83" t="s">
+        <v>209</v>
+      </c>
+      <c r="K83" t="s">
+        <v>209</v>
+      </c>
+      <c r="L83" t="s">
+        <v>209</v>
+      </c>
+      <c r="M83" t="s">
+        <v>209</v>
+      </c>
+      <c r="N83" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4853,16 +5477,16 @@
         <v>377</v>
       </c>
       <c r="K84" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M84" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="N84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4882,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
         <v>358</v>
@@ -4894,19 +5518,19 @@
         <v>264</v>
       </c>
       <c r="J85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K85" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M85" t="s">
         <v>263</v>
       </c>
       <c r="N85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4928,6 +5552,30 @@
       <c r="F86" t="s">
         <v>209</v>
       </c>
+      <c r="G86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86" t="s">
+        <v>209</v>
+      </c>
+      <c r="I86" t="s">
+        <v>209</v>
+      </c>
+      <c r="J86" t="s">
+        <v>209</v>
+      </c>
+      <c r="K86" t="s">
+        <v>209</v>
+      </c>
+      <c r="L86" t="s">
+        <v>209</v>
+      </c>
+      <c r="M86" t="s">
+        <v>209</v>
+      </c>
+      <c r="N86" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4948,6 +5596,30 @@
       <c r="F87" t="s">
         <v>209</v>
       </c>
+      <c r="G87" t="s">
+        <v>209</v>
+      </c>
+      <c r="H87" t="s">
+        <v>209</v>
+      </c>
+      <c r="I87" t="s">
+        <v>209</v>
+      </c>
+      <c r="J87" t="s">
+        <v>209</v>
+      </c>
+      <c r="K87" t="s">
+        <v>209</v>
+      </c>
+      <c r="L87" t="s">
+        <v>209</v>
+      </c>
+      <c r="M87" t="s">
+        <v>209</v>
+      </c>
+      <c r="N87" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -4966,13 +5638,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="s">
         <v>264</v>
       </c>
       <c r="H88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I88" t="s">
         <v>396</v>
@@ -4981,16 +5653,16 @@
         <v>376</v>
       </c>
       <c r="K88" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L88" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M88" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="N88" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5010,19 +5682,19 @@
         <v>0</v>
       </c>
       <c r="F89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
         <v>265</v>
       </c>
       <c r="H89" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I89" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="J89" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K89" t="s">
         <v>431</v>
@@ -5031,10 +5703,10 @@
         <v>376</v>
       </c>
       <c r="M89" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="N89" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5063,10 +5735,10 @@
         <v>377</v>
       </c>
       <c r="I90" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J90" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K90" t="s">
         <v>432</v>
@@ -5075,10 +5747,10 @@
         <v>376</v>
       </c>
       <c r="M90" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="N90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5100,6 +5772,30 @@
       <c r="F91" t="s">
         <v>209</v>
       </c>
+      <c r="G91" t="s">
+        <v>209</v>
+      </c>
+      <c r="H91" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" t="s">
+        <v>209</v>
+      </c>
+      <c r="J91" t="s">
+        <v>209</v>
+      </c>
+      <c r="K91" t="s">
+        <v>209</v>
+      </c>
+      <c r="L91" t="s">
+        <v>209</v>
+      </c>
+      <c r="M91" t="s">
+        <v>209</v>
+      </c>
+      <c r="N91" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
@@ -5127,16 +5823,16 @@
         <v>376</v>
       </c>
       <c r="I92" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J92" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K92" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="L92" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M92" t="s">
         <v>267</v>
@@ -5162,19 +5858,19 @@
         <v>0</v>
       </c>
       <c r="F93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>268</v>
       </c>
       <c r="H93" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I93" t="s">
         <v>305</v>
       </c>
       <c r="J93" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K93" t="s">
         <v>433</v>
@@ -5183,10 +5879,10 @@
         <v>376</v>
       </c>
       <c r="M93" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="N93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5206,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="s">
         <v>292</v>
@@ -5215,10 +5911,10 @@
         <v>380</v>
       </c>
       <c r="I94" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J94" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K94" t="s">
         <v>434</v>
@@ -5230,7 +5926,7 @@
         <v>269</v>
       </c>
       <c r="N94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5252,6 +5948,30 @@
       <c r="F95" t="s">
         <v>209</v>
       </c>
+      <c r="G95" t="s">
+        <v>209</v>
+      </c>
+      <c r="H95" t="s">
+        <v>209</v>
+      </c>
+      <c r="I95" t="s">
+        <v>209</v>
+      </c>
+      <c r="J95" t="s">
+        <v>209</v>
+      </c>
+      <c r="K95" t="s">
+        <v>209</v>
+      </c>
+      <c r="L95" t="s">
+        <v>209</v>
+      </c>
+      <c r="M95" t="s">
+        <v>209</v>
+      </c>
+      <c r="N95" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5282,13 +6002,13 @@
         <v>283</v>
       </c>
       <c r="J96" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K96" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L96" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M96" t="s">
         <v>460</v>
@@ -5317,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="H97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I97" t="s">
         <v>271</v>
@@ -5329,10 +6049,10 @@
         <v>377</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="L97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M97" t="s">
         <v>461</v>
@@ -5360,6 +6080,30 @@
       <c r="F98" t="s">
         <v>209</v>
       </c>
+      <c r="G98" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" t="s">
+        <v>209</v>
+      </c>
+      <c r="I98" t="s">
+        <v>209</v>
+      </c>
+      <c r="J98" t="s">
+        <v>209</v>
+      </c>
+      <c r="K98" t="s">
+        <v>209</v>
+      </c>
+      <c r="L98" t="s">
+        <v>209</v>
+      </c>
+      <c r="M98" t="s">
+        <v>209</v>
+      </c>
+      <c r="N98" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5380,6 +6124,30 @@
       <c r="F99" t="s">
         <v>209</v>
       </c>
+      <c r="G99" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" t="s">
+        <v>209</v>
+      </c>
+      <c r="I99" t="s">
+        <v>209</v>
+      </c>
+      <c r="J99" t="s">
+        <v>209</v>
+      </c>
+      <c r="K99" t="s">
+        <v>209</v>
+      </c>
+      <c r="L99" t="s">
+        <v>209</v>
+      </c>
+      <c r="M99" t="s">
+        <v>209</v>
+      </c>
+      <c r="N99" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
@@ -5404,7 +6172,7 @@
         <v>212</v>
       </c>
       <c r="H100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I100" t="s">
         <v>397</v>
@@ -5419,10 +6187,10 @@
         <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="N100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5448,7 +6216,7 @@
         <v>230</v>
       </c>
       <c r="H101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I101" t="s">
         <v>273</v>
@@ -5466,7 +6234,7 @@
         <v>271</v>
       </c>
       <c r="N101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5489,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="H102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I102" t="s">
         <v>398</v>
@@ -5501,10 +6269,10 @@
         <v>376</v>
       </c>
       <c r="K102" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M102" t="s">
         <v>274</v>
@@ -5545,16 +6313,16 @@
         <v>376</v>
       </c>
       <c r="K103" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="L103" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M103" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="N103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5576,6 +6344,30 @@
       <c r="F104" t="s">
         <v>209</v>
       </c>
+      <c r="G104" t="s">
+        <v>209</v>
+      </c>
+      <c r="H104" t="s">
+        <v>209</v>
+      </c>
+      <c r="I104" t="s">
+        <v>209</v>
+      </c>
+      <c r="J104" t="s">
+        <v>209</v>
+      </c>
+      <c r="K104" t="s">
+        <v>209</v>
+      </c>
+      <c r="L104" t="s">
+        <v>209</v>
+      </c>
+      <c r="M104" t="s">
+        <v>209</v>
+      </c>
+      <c r="N104" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
@@ -5596,6 +6388,30 @@
       <c r="F105" t="s">
         <v>209</v>
       </c>
+      <c r="G105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" t="s">
+        <v>209</v>
+      </c>
+      <c r="I105" t="s">
+        <v>209</v>
+      </c>
+      <c r="J105" t="s">
+        <v>209</v>
+      </c>
+      <c r="K105" t="s">
+        <v>209</v>
+      </c>
+      <c r="L105" t="s">
+        <v>209</v>
+      </c>
+      <c r="M105" t="s">
+        <v>209</v>
+      </c>
+      <c r="N105" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
@@ -5616,6 +6432,30 @@
       <c r="F106" t="s">
         <v>209</v>
       </c>
+      <c r="G106" t="s">
+        <v>209</v>
+      </c>
+      <c r="H106" t="s">
+        <v>209</v>
+      </c>
+      <c r="I106" t="s">
+        <v>209</v>
+      </c>
+      <c r="J106" t="s">
+        <v>209</v>
+      </c>
+      <c r="K106" t="s">
+        <v>209</v>
+      </c>
+      <c r="L106" t="s">
+        <v>209</v>
+      </c>
+      <c r="M106" t="s">
+        <v>209</v>
+      </c>
+      <c r="N106" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5636,6 +6476,30 @@
       <c r="F107" t="s">
         <v>209</v>
       </c>
+      <c r="G107" t="s">
+        <v>209</v>
+      </c>
+      <c r="H107" t="s">
+        <v>209</v>
+      </c>
+      <c r="I107" t="s">
+        <v>209</v>
+      </c>
+      <c r="J107" t="s">
+        <v>209</v>
+      </c>
+      <c r="K107" t="s">
+        <v>209</v>
+      </c>
+      <c r="L107" t="s">
+        <v>209</v>
+      </c>
+      <c r="M107" t="s">
+        <v>209</v>
+      </c>
+      <c r="N107" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5654,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>360</v>
@@ -5663,22 +6527,22 @@
         <v>376</v>
       </c>
       <c r="I108" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="J108" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K108" t="s">
         <v>276</v>
       </c>
       <c r="L108" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M108" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="N108" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5698,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>361</v>
@@ -5710,19 +6574,19 @@
         <v>277</v>
       </c>
       <c r="J109" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K109" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="L109" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M109" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="N109" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5744,6 +6608,30 @@
       <c r="F110" t="s">
         <v>209</v>
       </c>
+      <c r="G110" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110" t="s">
+        <v>209</v>
+      </c>
+      <c r="I110" t="s">
+        <v>209</v>
+      </c>
+      <c r="J110" t="s">
+        <v>209</v>
+      </c>
+      <c r="K110" t="s">
+        <v>209</v>
+      </c>
+      <c r="L110" t="s">
+        <v>209</v>
+      </c>
+      <c r="M110" t="s">
+        <v>209</v>
+      </c>
+      <c r="N110" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5768,13 +6656,13 @@
         <v>323</v>
       </c>
       <c r="H111" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I111" t="s">
         <v>294</v>
       </c>
       <c r="J111" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K111" t="s">
         <v>436</v>
@@ -5809,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="H112" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I112" t="s">
         <v>400</v>
@@ -5821,10 +6709,10 @@
         <v>376</v>
       </c>
       <c r="K112" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L112" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M112" t="s">
         <v>279</v>
@@ -5853,16 +6741,16 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="H113" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I113" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="J113" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K113" t="s">
         <v>437</v>
@@ -5896,6 +6784,30 @@
       <c r="F114" t="s">
         <v>209</v>
       </c>
+      <c r="G114" t="s">
+        <v>209</v>
+      </c>
+      <c r="H114" t="s">
+        <v>209</v>
+      </c>
+      <c r="I114" t="s">
+        <v>209</v>
+      </c>
+      <c r="J114" t="s">
+        <v>209</v>
+      </c>
+      <c r="K114" t="s">
+        <v>209</v>
+      </c>
+      <c r="L114" t="s">
+        <v>209</v>
+      </c>
+      <c r="M114" t="s">
+        <v>209</v>
+      </c>
+      <c r="N114" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
@@ -5929,16 +6841,16 @@
         <v>376</v>
       </c>
       <c r="K115" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L115" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M115" t="s">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="N115" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -5973,16 +6885,16 @@
         <v>377</v>
       </c>
       <c r="K116" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L116" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M116" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="N116" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6020,13 +6932,13 @@
         <v>231</v>
       </c>
       <c r="L117" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M117" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="N117" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -6048,6 +6960,30 @@
       <c r="F118" t="s">
         <v>209</v>
       </c>
+      <c r="G118" t="s">
+        <v>209</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" t="s">
+        <v>209</v>
+      </c>
+      <c r="J118" t="s">
+        <v>209</v>
+      </c>
+      <c r="K118" t="s">
+        <v>209</v>
+      </c>
+      <c r="L118" t="s">
+        <v>209</v>
+      </c>
+      <c r="M118" t="s">
+        <v>209</v>
+      </c>
+      <c r="N118" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6081,16 +7017,16 @@
         <v>377</v>
       </c>
       <c r="K119" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L119" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M119" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="N119" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -6113,10 +7049,10 @@
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H120" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I120" t="s">
         <v>403</v>
@@ -6125,16 +7061,16 @@
         <v>376</v>
       </c>
       <c r="K120" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="L120" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M120" t="s">
         <v>285</v>
       </c>
       <c r="N120" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6163,16 +7099,16 @@
         <v>377</v>
       </c>
       <c r="I121" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="J121" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K121" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="L121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M121" t="s">
         <v>462</v>
@@ -6201,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="H122" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I122" t="s">
         <v>287</v>
@@ -6222,7 +7158,7 @@
         <v>221</v>
       </c>
       <c r="N122" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6244,6 +7180,30 @@
       <c r="F123" t="s">
         <v>209</v>
       </c>
+      <c r="G123" t="s">
+        <v>209</v>
+      </c>
+      <c r="H123" t="s">
+        <v>209</v>
+      </c>
+      <c r="I123" t="s">
+        <v>209</v>
+      </c>
+      <c r="J123" t="s">
+        <v>209</v>
+      </c>
+      <c r="K123" t="s">
+        <v>209</v>
+      </c>
+      <c r="L123" t="s">
+        <v>209</v>
+      </c>
+      <c r="M123" t="s">
+        <v>209</v>
+      </c>
+      <c r="N123" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6264,6 +7224,30 @@
       <c r="F124" t="s">
         <v>209</v>
       </c>
+      <c r="G124" t="s">
+        <v>209</v>
+      </c>
+      <c r="H124" t="s">
+        <v>209</v>
+      </c>
+      <c r="I124" t="s">
+        <v>209</v>
+      </c>
+      <c r="J124" t="s">
+        <v>209</v>
+      </c>
+      <c r="K124" t="s">
+        <v>209</v>
+      </c>
+      <c r="L124" t="s">
+        <v>209</v>
+      </c>
+      <c r="M124" t="s">
+        <v>209</v>
+      </c>
+      <c r="N124" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6282,25 +7266,25 @@
         <v>0</v>
       </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H125" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I125" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="J125" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K125" t="s">
         <v>288</v>
       </c>
       <c r="L125" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M125" t="s">
         <v>463</v>
@@ -6326,13 +7310,13 @@
         <v>0</v>
       </c>
       <c r="F126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H126" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I126" t="s">
         <v>404</v>
@@ -6344,10 +7328,10 @@
         <v>289</v>
       </c>
       <c r="L126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M126" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="N126" t="s">
         <v>380</v>
@@ -6370,25 +7354,25 @@
         <v>0</v>
       </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>227</v>
       </c>
       <c r="H127" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I127" t="s">
         <v>290</v>
       </c>
       <c r="J127" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K127" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="L127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M127" t="s">
         <v>464</v>
@@ -6417,10 +7401,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H128" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I128" t="s">
         <v>291</v>
@@ -6435,10 +7419,10 @@
         <v>376</v>
       </c>
       <c r="M128" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="N128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6461,16 +7445,16 @@
         <v>0</v>
       </c>
       <c r="G129" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="H129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I129" t="s">
         <v>283</v>
       </c>
       <c r="J129" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K129" t="s">
         <v>440</v>
@@ -6508,7 +7492,7 @@
         <v>218</v>
       </c>
       <c r="H130" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I130" t="s">
         <v>405</v>
@@ -6517,10 +7501,10 @@
         <v>376</v>
       </c>
       <c r="K130" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="L130" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M130" t="s">
         <v>293</v>
@@ -6548,6 +7532,30 @@
       <c r="F131" t="s">
         <v>209</v>
       </c>
+      <c r="G131" t="s">
+        <v>209</v>
+      </c>
+      <c r="H131" t="s">
+        <v>209</v>
+      </c>
+      <c r="I131" t="s">
+        <v>209</v>
+      </c>
+      <c r="J131" t="s">
+        <v>209</v>
+      </c>
+      <c r="K131" t="s">
+        <v>209</v>
+      </c>
+      <c r="L131" t="s">
+        <v>209</v>
+      </c>
+      <c r="M131" t="s">
+        <v>209</v>
+      </c>
+      <c r="N131" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
@@ -6568,6 +7576,30 @@
       <c r="F132" t="s">
         <v>209</v>
       </c>
+      <c r="G132" t="s">
+        <v>209</v>
+      </c>
+      <c r="H132" t="s">
+        <v>209</v>
+      </c>
+      <c r="I132" t="s">
+        <v>209</v>
+      </c>
+      <c r="J132" t="s">
+        <v>209</v>
+      </c>
+      <c r="K132" t="s">
+        <v>209</v>
+      </c>
+      <c r="L132" t="s">
+        <v>209</v>
+      </c>
+      <c r="M132" t="s">
+        <v>209</v>
+      </c>
+      <c r="N132" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
@@ -6589,10 +7621,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="H133" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I133" t="s">
         <v>294</v>
@@ -6607,10 +7639,10 @@
         <v>376</v>
       </c>
       <c r="M133" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="N133" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6633,10 +7665,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="H134" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I134" t="s">
         <v>295</v>
@@ -6651,10 +7683,10 @@
         <v>376</v>
       </c>
       <c r="M134" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="N134" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6689,16 +7721,16 @@
         <v>376</v>
       </c>
       <c r="K135" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="L135" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M135" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="N135" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -6730,7 +7762,7 @@
         <v>310</v>
       </c>
       <c r="J136" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K136" t="s">
         <v>297</v>
@@ -6742,7 +7774,7 @@
         <v>307</v>
       </c>
       <c r="N136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -6764,6 +7796,30 @@
       <c r="F137" t="s">
         <v>209</v>
       </c>
+      <c r="G137" t="s">
+        <v>209</v>
+      </c>
+      <c r="H137" t="s">
+        <v>209</v>
+      </c>
+      <c r="I137" t="s">
+        <v>209</v>
+      </c>
+      <c r="J137" t="s">
+        <v>209</v>
+      </c>
+      <c r="K137" t="s">
+        <v>209</v>
+      </c>
+      <c r="L137" t="s">
+        <v>209</v>
+      </c>
+      <c r="M137" t="s">
+        <v>209</v>
+      </c>
+      <c r="N137" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6785,16 +7841,16 @@
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="H138" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I138" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="J138" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K138" t="s">
         <v>443</v>
@@ -6826,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
         <v>365</v>
@@ -6835,22 +7891,22 @@
         <v>376</v>
       </c>
       <c r="I139" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="J139" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K139" t="s">
         <v>299</v>
       </c>
       <c r="L139" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M139" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="N139" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -6873,16 +7929,16 @@
         <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="H140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I140" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="J140" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K140" t="s">
         <v>444</v>
@@ -6894,7 +7950,7 @@
         <v>300</v>
       </c>
       <c r="N140" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -6923,10 +7979,10 @@
         <v>377</v>
       </c>
       <c r="I141" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J141" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K141" t="s">
         <v>445</v>
@@ -6935,10 +7991,10 @@
         <v>376</v>
       </c>
       <c r="M141" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N141" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -6958,25 +8014,25 @@
         <v>0</v>
       </c>
       <c r="F142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="H142" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I142" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="J142" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K142" t="s">
         <v>302</v>
       </c>
       <c r="L142" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M142" t="s">
         <v>465</v>
@@ -7004,6 +8060,30 @@
       <c r="F143" t="s">
         <v>209</v>
       </c>
+      <c r="G143" t="s">
+        <v>209</v>
+      </c>
+      <c r="H143" t="s">
+        <v>209</v>
+      </c>
+      <c r="I143" t="s">
+        <v>209</v>
+      </c>
+      <c r="J143" t="s">
+        <v>209</v>
+      </c>
+      <c r="K143" t="s">
+        <v>209</v>
+      </c>
+      <c r="L143" t="s">
+        <v>209</v>
+      </c>
+      <c r="M143" t="s">
+        <v>209</v>
+      </c>
+      <c r="N143" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -7025,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="H144" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I144" t="s">
         <v>303</v>
@@ -7043,10 +8123,10 @@
         <v>376</v>
       </c>
       <c r="M144" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="N144" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7068,6 +8148,30 @@
       <c r="F145" t="s">
         <v>209</v>
       </c>
+      <c r="G145" t="s">
+        <v>209</v>
+      </c>
+      <c r="H145" t="s">
+        <v>209</v>
+      </c>
+      <c r="I145" t="s">
+        <v>209</v>
+      </c>
+      <c r="J145" t="s">
+        <v>209</v>
+      </c>
+      <c r="K145" t="s">
+        <v>209</v>
+      </c>
+      <c r="L145" t="s">
+        <v>209</v>
+      </c>
+      <c r="M145" t="s">
+        <v>209</v>
+      </c>
+      <c r="N145" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
@@ -7086,19 +8190,19 @@
         <v>0</v>
       </c>
       <c r="F146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="H146" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I146" t="s">
         <v>221</v>
       </c>
       <c r="J146" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K146" t="s">
         <v>447</v>
@@ -7110,7 +8214,7 @@
         <v>304</v>
       </c>
       <c r="N146" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7132,6 +8236,30 @@
       <c r="F147" t="s">
         <v>209</v>
       </c>
+      <c r="G147" t="s">
+        <v>209</v>
+      </c>
+      <c r="H147" t="s">
+        <v>209</v>
+      </c>
+      <c r="I147" t="s">
+        <v>209</v>
+      </c>
+      <c r="J147" t="s">
+        <v>209</v>
+      </c>
+      <c r="K147" t="s">
+        <v>209</v>
+      </c>
+      <c r="L147" t="s">
+        <v>209</v>
+      </c>
+      <c r="M147" t="s">
+        <v>209</v>
+      </c>
+      <c r="N147" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
@@ -7152,6 +8280,30 @@
       <c r="F148" t="s">
         <v>209</v>
       </c>
+      <c r="G148" t="s">
+        <v>209</v>
+      </c>
+      <c r="H148" t="s">
+        <v>209</v>
+      </c>
+      <c r="I148" t="s">
+        <v>209</v>
+      </c>
+      <c r="J148" t="s">
+        <v>209</v>
+      </c>
+      <c r="K148" t="s">
+        <v>209</v>
+      </c>
+      <c r="L148" t="s">
+        <v>209</v>
+      </c>
+      <c r="M148" t="s">
+        <v>209</v>
+      </c>
+      <c r="N148" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
@@ -7188,13 +8340,13 @@
         <v>246</v>
       </c>
       <c r="L149" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N149" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7223,10 +8375,10 @@
         <v>376</v>
       </c>
       <c r="I150" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="J150" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K150" t="s">
         <v>306</v>
@@ -7235,10 +8387,10 @@
         <v>377</v>
       </c>
       <c r="M150" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="N150" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7260,6 +8412,30 @@
       <c r="F151" t="s">
         <v>209</v>
       </c>
+      <c r="G151" t="s">
+        <v>209</v>
+      </c>
+      <c r="H151" t="s">
+        <v>209</v>
+      </c>
+      <c r="I151" t="s">
+        <v>209</v>
+      </c>
+      <c r="J151" t="s">
+        <v>209</v>
+      </c>
+      <c r="K151" t="s">
+        <v>209</v>
+      </c>
+      <c r="L151" t="s">
+        <v>209</v>
+      </c>
+      <c r="M151" t="s">
+        <v>209</v>
+      </c>
+      <c r="N151" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7280,6 +8456,30 @@
       <c r="F152" t="s">
         <v>209</v>
       </c>
+      <c r="G152" t="s">
+        <v>209</v>
+      </c>
+      <c r="H152" t="s">
+        <v>209</v>
+      </c>
+      <c r="I152" t="s">
+        <v>209</v>
+      </c>
+      <c r="J152" t="s">
+        <v>209</v>
+      </c>
+      <c r="K152" t="s">
+        <v>209</v>
+      </c>
+      <c r="L152" t="s">
+        <v>209</v>
+      </c>
+      <c r="M152" t="s">
+        <v>209</v>
+      </c>
+      <c r="N152" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7307,10 +8507,10 @@
         <v>377</v>
       </c>
       <c r="I153" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J153" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K153" t="s">
         <v>448</v>
@@ -7319,10 +8519,10 @@
         <v>376</v>
       </c>
       <c r="M153" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="N153" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7342,19 +8542,19 @@
         <v>0</v>
       </c>
       <c r="F154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>283</v>
       </c>
       <c r="H154" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I154" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="J154" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K154" t="s">
         <v>449</v>
@@ -7366,7 +8566,7 @@
         <v>308</v>
       </c>
       <c r="N154" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7388,6 +8588,30 @@
       <c r="F155" t="s">
         <v>209</v>
       </c>
+      <c r="G155" t="s">
+        <v>209</v>
+      </c>
+      <c r="H155" t="s">
+        <v>209</v>
+      </c>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+      <c r="J155" t="s">
+        <v>209</v>
+      </c>
+      <c r="K155" t="s">
+        <v>209</v>
+      </c>
+      <c r="L155" t="s">
+        <v>209</v>
+      </c>
+      <c r="M155" t="s">
+        <v>209</v>
+      </c>
+      <c r="N155" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7406,13 +8630,13 @@
         <v>0</v>
       </c>
       <c r="F156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="H156" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I156" t="s">
         <v>407</v>
@@ -7424,13 +8648,13 @@
         <v>309</v>
       </c>
       <c r="L156" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M156" t="s">
         <v>280</v>
       </c>
       <c r="N156" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -7459,16 +8683,16 @@
         <v>377</v>
       </c>
       <c r="I157" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J157" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K157" t="s">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="L157" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M157" t="s">
         <v>466</v>
@@ -7496,6 +8720,30 @@
       <c r="F158" t="s">
         <v>209</v>
       </c>
+      <c r="G158" t="s">
+        <v>209</v>
+      </c>
+      <c r="H158" t="s">
+        <v>209</v>
+      </c>
+      <c r="I158" t="s">
+        <v>209</v>
+      </c>
+      <c r="J158" t="s">
+        <v>209</v>
+      </c>
+      <c r="K158" t="s">
+        <v>209</v>
+      </c>
+      <c r="L158" t="s">
+        <v>209</v>
+      </c>
+      <c r="M158" t="s">
+        <v>209</v>
+      </c>
+      <c r="N158" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
@@ -7517,16 +8765,16 @@
         <v>1</v>
       </c>
       <c r="G159" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="H159" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I159" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J159" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K159" t="s">
         <v>450</v>
@@ -7538,7 +8786,7 @@
         <v>311</v>
       </c>
       <c r="N159" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7576,13 +8824,13 @@
         <v>215</v>
       </c>
       <c r="L160" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M160" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="N160" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -7608,7 +8856,7 @@
         <v>306</v>
       </c>
       <c r="H161" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I161" t="s">
         <v>313</v>
@@ -7620,7 +8868,7 @@
         <v>283</v>
       </c>
       <c r="L161" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M161" t="s">
         <v>467</v>
@@ -7648,6 +8896,30 @@
       <c r="F162" t="s">
         <v>209</v>
       </c>
+      <c r="G162" t="s">
+        <v>209</v>
+      </c>
+      <c r="H162" t="s">
+        <v>209</v>
+      </c>
+      <c r="I162" t="s">
+        <v>209</v>
+      </c>
+      <c r="J162" t="s">
+        <v>209</v>
+      </c>
+      <c r="K162" t="s">
+        <v>209</v>
+      </c>
+      <c r="L162" t="s">
+        <v>209</v>
+      </c>
+      <c r="M162" t="s">
+        <v>209</v>
+      </c>
+      <c r="N162" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7666,25 +8938,25 @@
         <v>0</v>
       </c>
       <c r="F163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H163" t="s">
         <v>380</v>
       </c>
       <c r="I163" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="J163" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K163" t="s">
         <v>314</v>
       </c>
       <c r="L163" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M163" t="s">
         <v>468</v>
@@ -7710,19 +8982,19 @@
         <v>0</v>
       </c>
       <c r="F164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="H164" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I164" t="s">
         <v>214</v>
       </c>
       <c r="J164" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K164" t="s">
         <v>451</v>
@@ -7734,7 +9006,7 @@
         <v>315</v>
       </c>
       <c r="N164" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -7756,6 +9028,30 @@
       <c r="F165" t="s">
         <v>209</v>
       </c>
+      <c r="G165" t="s">
+        <v>209</v>
+      </c>
+      <c r="H165" t="s">
+        <v>209</v>
+      </c>
+      <c r="I165" t="s">
+        <v>209</v>
+      </c>
+      <c r="J165" t="s">
+        <v>209</v>
+      </c>
+      <c r="K165" t="s">
+        <v>209</v>
+      </c>
+      <c r="L165" t="s">
+        <v>209</v>
+      </c>
+      <c r="M165" t="s">
+        <v>209</v>
+      </c>
+      <c r="N165" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7774,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="s">
         <v>369</v>
@@ -7783,22 +9079,22 @@
         <v>376</v>
       </c>
       <c r="I166" t="s">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="J166" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K166" t="s">
         <v>316</v>
       </c>
       <c r="L166" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M166" t="s">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="N166" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -7820,6 +9116,30 @@
       <c r="F167" t="s">
         <v>209</v>
       </c>
+      <c r="G167" t="s">
+        <v>209</v>
+      </c>
+      <c r="H167" t="s">
+        <v>209</v>
+      </c>
+      <c r="I167" t="s">
+        <v>209</v>
+      </c>
+      <c r="J167" t="s">
+        <v>209</v>
+      </c>
+      <c r="K167" t="s">
+        <v>209</v>
+      </c>
+      <c r="L167" t="s">
+        <v>209</v>
+      </c>
+      <c r="M167" t="s">
+        <v>209</v>
+      </c>
+      <c r="N167" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -7841,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="H168" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I168" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="J168" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K168" t="s">
         <v>317</v>
@@ -7897,16 +9217,16 @@
         <v>377</v>
       </c>
       <c r="K169" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="L169" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M169" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="N169" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -7928,6 +9248,30 @@
       <c r="F170" t="s">
         <v>209</v>
       </c>
+      <c r="G170" t="s">
+        <v>209</v>
+      </c>
+      <c r="H170" t="s">
+        <v>209</v>
+      </c>
+      <c r="I170" t="s">
+        <v>209</v>
+      </c>
+      <c r="J170" t="s">
+        <v>209</v>
+      </c>
+      <c r="K170" t="s">
+        <v>209</v>
+      </c>
+      <c r="L170" t="s">
+        <v>209</v>
+      </c>
+      <c r="M170" t="s">
+        <v>209</v>
+      </c>
+      <c r="N170" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -7946,25 +9290,25 @@
         <v>0</v>
       </c>
       <c r="F171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="s">
         <v>270</v>
       </c>
       <c r="H171" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I171" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="J171" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K171" t="s">
         <v>319</v>
       </c>
       <c r="L171" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M171" t="s">
         <v>470</v>
@@ -7990,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="F172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="H172" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I172" t="s">
         <v>408</v>
@@ -8008,13 +9352,13 @@
         <v>320</v>
       </c>
       <c r="L172" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M172" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="N172" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8036,6 +9380,30 @@
       <c r="F173" t="s">
         <v>209</v>
       </c>
+      <c r="G173" t="s">
+        <v>209</v>
+      </c>
+      <c r="H173" t="s">
+        <v>209</v>
+      </c>
+      <c r="I173" t="s">
+        <v>209</v>
+      </c>
+      <c r="J173" t="s">
+        <v>209</v>
+      </c>
+      <c r="K173" t="s">
+        <v>209</v>
+      </c>
+      <c r="L173" t="s">
+        <v>209</v>
+      </c>
+      <c r="M173" t="s">
+        <v>209</v>
+      </c>
+      <c r="N173" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8056,6 +9424,30 @@
       <c r="F174" t="s">
         <v>209</v>
       </c>
+      <c r="G174" t="s">
+        <v>209</v>
+      </c>
+      <c r="H174" t="s">
+        <v>209</v>
+      </c>
+      <c r="I174" t="s">
+        <v>209</v>
+      </c>
+      <c r="J174" t="s">
+        <v>209</v>
+      </c>
+      <c r="K174" t="s">
+        <v>209</v>
+      </c>
+      <c r="L174" t="s">
+        <v>209</v>
+      </c>
+      <c r="M174" t="s">
+        <v>209</v>
+      </c>
+      <c r="N174" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8080,19 +9472,19 @@
         <v>307</v>
       </c>
       <c r="H175" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I175" t="s">
         <v>321</v>
       </c>
       <c r="J175" t="s">
+        <v>378</v>
+      </c>
+      <c r="K175" t="s">
+        <v>230</v>
+      </c>
+      <c r="L175" t="s">
         <v>382</v>
-      </c>
-      <c r="K175" t="s">
-        <v>282</v>
-      </c>
-      <c r="L175" t="s">
-        <v>378</v>
       </c>
       <c r="M175" t="s">
         <v>471</v>
@@ -8118,19 +9510,19 @@
         <v>0</v>
       </c>
       <c r="F176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176" t="s">
         <v>322</v>
       </c>
       <c r="H176" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I176" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="J176" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K176" t="s">
         <v>452</v>
@@ -8139,10 +9531,10 @@
         <v>376</v>
       </c>
       <c r="M176" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="N176" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8162,13 +9554,13 @@
         <v>0</v>
       </c>
       <c r="F177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="H177" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I177" t="s">
         <v>409</v>
@@ -8180,7 +9572,7 @@
         <v>323</v>
       </c>
       <c r="L177" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M177" t="s">
         <v>313</v>
@@ -8208,6 +9600,30 @@
       <c r="F178" t="s">
         <v>209</v>
       </c>
+      <c r="G178" t="s">
+        <v>209</v>
+      </c>
+      <c r="H178" t="s">
+        <v>209</v>
+      </c>
+      <c r="I178" t="s">
+        <v>209</v>
+      </c>
+      <c r="J178" t="s">
+        <v>209</v>
+      </c>
+      <c r="K178" t="s">
+        <v>209</v>
+      </c>
+      <c r="L178" t="s">
+        <v>209</v>
+      </c>
+      <c r="M178" t="s">
+        <v>209</v>
+      </c>
+      <c r="N178" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8228,6 +9644,30 @@
       <c r="F179" t="s">
         <v>209</v>
       </c>
+      <c r="G179" t="s">
+        <v>209</v>
+      </c>
+      <c r="H179" t="s">
+        <v>209</v>
+      </c>
+      <c r="I179" t="s">
+        <v>209</v>
+      </c>
+      <c r="J179" t="s">
+        <v>209</v>
+      </c>
+      <c r="K179" t="s">
+        <v>209</v>
+      </c>
+      <c r="L179" t="s">
+        <v>209</v>
+      </c>
+      <c r="M179" t="s">
+        <v>209</v>
+      </c>
+      <c r="N179" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8249,10 +9689,10 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="H180" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I180" t="s">
         <v>410</v>
@@ -8264,13 +9704,13 @@
         <v>324</v>
       </c>
       <c r="L180" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M180" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N180" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -8290,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="F181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="H181" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I181" t="s">
         <v>272</v>
@@ -8314,7 +9754,7 @@
         <v>325</v>
       </c>
       <c r="N181" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -8336,6 +9776,30 @@
       <c r="F182" t="s">
         <v>209</v>
       </c>
+      <c r="G182" t="s">
+        <v>209</v>
+      </c>
+      <c r="H182" t="s">
+        <v>209</v>
+      </c>
+      <c r="I182" t="s">
+        <v>209</v>
+      </c>
+      <c r="J182" t="s">
+        <v>209</v>
+      </c>
+      <c r="K182" t="s">
+        <v>209</v>
+      </c>
+      <c r="L182" t="s">
+        <v>209</v>
+      </c>
+      <c r="M182" t="s">
+        <v>209</v>
+      </c>
+      <c r="N182" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8369,16 +9833,16 @@
         <v>376</v>
       </c>
       <c r="K183" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="L183" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M183" t="s">
         <v>286</v>
       </c>
       <c r="N183" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -8413,16 +9877,16 @@
         <v>377</v>
       </c>
       <c r="K184" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L184" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M184" t="s">
         <v>234</v>
       </c>
       <c r="N184" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -8451,22 +9915,22 @@
         <v>376</v>
       </c>
       <c r="I185" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="J185" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K185" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L185" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M185" t="s">
         <v>328</v>
       </c>
       <c r="N185" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>209</v>
       </c>
+      <c r="G186" t="s">
+        <v>209</v>
+      </c>
+      <c r="H186" t="s">
+        <v>209</v>
+      </c>
+      <c r="I186" t="s">
+        <v>209</v>
+      </c>
+      <c r="J186" t="s">
+        <v>209</v>
+      </c>
+      <c r="K186" t="s">
+        <v>209</v>
+      </c>
+      <c r="L186" t="s">
+        <v>209</v>
+      </c>
+      <c r="M186" t="s">
+        <v>209</v>
+      </c>
+      <c r="N186" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8506,16 +9994,16 @@
         <v>0</v>
       </c>
       <c r="F187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G187" t="s">
         <v>329</v>
       </c>
       <c r="H187" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I187" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="J187" t="s">
         <v>380</v>
@@ -8524,7 +10012,7 @@
         <v>261</v>
       </c>
       <c r="L187" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M187" t="s">
         <v>472</v>
@@ -8550,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188" t="s">
         <v>373</v>
@@ -8562,19 +10050,19 @@
         <v>330</v>
       </c>
       <c r="J188" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K188" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L188" t="s">
         <v>380</v>
       </c>
       <c r="M188" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="N188" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -8594,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="s">
         <v>374</v>
@@ -8603,7 +10091,7 @@
         <v>376</v>
       </c>
       <c r="I189" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="J189" t="s">
         <v>380</v>
@@ -8612,13 +10100,13 @@
         <v>331</v>
       </c>
       <c r="L189" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M189" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N189" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -8640,6 +10128,30 @@
       <c r="F190" t="s">
         <v>209</v>
       </c>
+      <c r="G190" t="s">
+        <v>209</v>
+      </c>
+      <c r="H190" t="s">
+        <v>209</v>
+      </c>
+      <c r="I190" t="s">
+        <v>209</v>
+      </c>
+      <c r="J190" t="s">
+        <v>209</v>
+      </c>
+      <c r="K190" t="s">
+        <v>209</v>
+      </c>
+      <c r="L190" t="s">
+        <v>209</v>
+      </c>
+      <c r="M190" t="s">
+        <v>209</v>
+      </c>
+      <c r="N190" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
@@ -8660,6 +10172,30 @@
       <c r="F191" t="s">
         <v>209</v>
       </c>
+      <c r="G191" t="s">
+        <v>209</v>
+      </c>
+      <c r="H191" t="s">
+        <v>209</v>
+      </c>
+      <c r="I191" t="s">
+        <v>209</v>
+      </c>
+      <c r="J191" t="s">
+        <v>209</v>
+      </c>
+      <c r="K191" t="s">
+        <v>209</v>
+      </c>
+      <c r="L191" t="s">
+        <v>209</v>
+      </c>
+      <c r="M191" t="s">
+        <v>209</v>
+      </c>
+      <c r="N191" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8693,16 +10229,16 @@
         <v>377</v>
       </c>
       <c r="K192" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L192" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M192" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="N192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -8722,13 +10258,13 @@
         <v>0</v>
       </c>
       <c r="F193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="H193" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I193" t="s">
         <v>412</v>
@@ -8740,13 +10276,13 @@
         <v>333</v>
       </c>
       <c r="L193" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M193" t="s">
         <v>325</v>
       </c>
       <c r="N193" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/16_retrieval_1.xlsx
+++ b/sequences/16_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>segnen</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>garen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>landen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>schließen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>schleppen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>boxen</t>
   </si>
   <si>
     <t>tauschen</t>
   </si>
   <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>passen</t>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>herrschen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>flüstern</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>weigern</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>dienen</t>
   </si>
   <si>
     <t>stoppen</t>
   </si>
   <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>starren</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>teilen</t>
+    <t>spüren</t>
   </si>
   <si>
     <t>schulden</t>
   </si>
   <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>wechseln</t>
   </si>
   <si>
     <t>schämen</t>
   </si>
   <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>stillen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
     <t>liefern</t>
   </si>
   <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>polen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>sterben</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
     <t>lügen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>siegen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>klagen</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>machen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>fesseln</t>
   </si>
   <si>
     <t>house/house015.jpg</t>
